--- a/mytest.xlsx
+++ b/mytest.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
     <t>列3</t>
   </si>
   <si>
@@ -50,6 +44,12 @@
   </si>
   <si>
     <t>小孟</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>年龄</t>
   </si>
 </sst>
 </file>
@@ -105,11 +105,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2"/>
+    <tableColumn id="1" name="姓名"/>
+    <tableColumn id="2" name="年龄"/>
     <tableColumn id="3" name="列3"/>
     <tableColumn id="4" name="列4"/>
     <tableColumn id="5" name="列5"/>
@@ -406,52 +406,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="B7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/mytest.xlsx
+++ b/mytest.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>列3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>列4</t>
   </si>
@@ -50,6 +47,15 @@
   </si>
   <si>
     <t>年龄</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>男</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
   <tableColumns count="6">
     <tableColumn id="1" name="姓名"/>
     <tableColumn id="2" name="年龄"/>
-    <tableColumn id="3" name="列3"/>
+    <tableColumn id="3" name="性别"/>
     <tableColumn id="4" name="列4"/>
     <tableColumn id="5" name="列5"/>
     <tableColumn id="6" name="列6"/>
@@ -409,50 +415,56 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -460,7 +472,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -468,7 +480,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -476,7 +488,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>8</v>

--- a/mytest.xlsx
+++ b/mytest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>列4</t>
   </si>
@@ -29,18 +29,6 @@
   </si>
   <si>
     <t>小明</t>
-  </si>
-  <si>
-    <t>小张</t>
-  </si>
-  <si>
-    <t>晓丽</t>
-  </si>
-  <si>
-    <t>小王</t>
-  </si>
-  <si>
-    <t>小孟</t>
   </si>
   <si>
     <t>姓名</t>
@@ -412,23 +400,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -448,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -459,39 +447,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/mytest.xlsx
+++ b/mytest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>列4</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>男</t>
+  </si>
+  <si>
+    <t>xiaoer</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +441,9 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -448,6 +454,14 @@
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
